--- a/Power BI Assignment/Data files/column_data.xlsx
+++ b/Power BI Assignment/Data files/column_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\springnuance\Desktop\Business-Intelligence\Power BI Assignment\Data files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C820FD72-24D8-4517-82AD-FB9B62CE0C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78D42DF-2F21-40E9-AE9E-A81771D53243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F8E45057-498B-43A5-BFF5-013B47F3B0E3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="90">
   <si>
     <t xml:space="preserve">Column name </t>
   </si>
@@ -44,18 +44,6 @@
     <t>Descriptions</t>
   </si>
   <si>
-    <t xml:space="preserve">title </t>
-  </si>
-  <si>
-    <t>The title of the product. (String)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">title_orig </t>
-  </si>
-  <si>
-    <t>The original title of the product. (String)</t>
-  </si>
-  <si>
     <t xml:space="preserve">price </t>
   </si>
   <si>
@@ -68,12 +56,6 @@
     <t>The original retail price of the product. (Float)</t>
   </si>
   <si>
-    <t xml:space="preserve">currency_buyer </t>
-  </si>
-  <si>
-    <t>The currency of the buyer. (String)</t>
-  </si>
-  <si>
     <t xml:space="preserve">units_sold </t>
   </si>
   <si>
@@ -194,12 +176,6 @@
     <t>The countries the product is shipped to. (String)</t>
   </si>
   <si>
-    <t xml:space="preserve">inventory_total </t>
-  </si>
-  <si>
-    <t>The total inventory of the product. (Integer)</t>
-  </si>
-  <si>
     <t xml:space="preserve">has_urgency_banner </t>
   </si>
   <si>
@@ -212,12 +188,6 @@
     <t>The text of the urgency banner. (String)</t>
   </si>
   <si>
-    <t xml:space="preserve">origin_country </t>
-  </si>
-  <si>
-    <t>The country of origin of the product. (String)</t>
-  </si>
-  <si>
     <t xml:space="preserve">merchant_title </t>
   </si>
   <si>
@@ -248,56 +218,101 @@
     <t>A flag indicating if the merchant has a profile picture. (Boolean)</t>
   </si>
   <si>
-    <t xml:space="preserve">product_url </t>
-  </si>
-  <si>
-    <t>The URL of the product. (String)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">product_picture </t>
-  </si>
-  <si>
-    <t>The picture of the product. (String)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">theme </t>
-  </si>
-  <si>
-    <t>The theme of the product. (String)</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>badge data</t>
-  </si>
-  <si>
     <t>product data</t>
   </si>
   <si>
     <t>merchant data</t>
   </si>
   <si>
-    <t>shipping data</t>
-  </si>
-  <si>
     <t>rating data</t>
   </si>
   <si>
-    <t>price data</t>
-  </si>
-  <si>
     <t>units sold</t>
+  </si>
+  <si>
+    <t>Category 1</t>
+  </si>
+  <si>
+    <t>Category 2</t>
+  </si>
+  <si>
+    <t>1 star</t>
+  </si>
+  <si>
+    <t>rating star count</t>
+  </si>
+  <si>
+    <t>2 star</t>
+  </si>
+  <si>
+    <t>3 star</t>
+  </si>
+  <si>
+    <t>4 star</t>
+  </si>
+  <si>
+    <t>5 star</t>
+  </si>
+  <si>
+    <t>overall rating</t>
+  </si>
+  <si>
+    <t>rating count</t>
+  </si>
+  <si>
+    <t>rating value</t>
+  </si>
+  <si>
+    <t>Category 3</t>
+  </si>
+  <si>
+    <t>urgency status</t>
+  </si>
+  <si>
+    <t>shipping info</t>
+  </si>
+  <si>
+    <t>sales data</t>
+  </si>
+  <si>
+    <t>true price</t>
+  </si>
+  <si>
+    <t>retail price</t>
+  </si>
+  <si>
+    <t>tags</t>
+  </si>
+  <si>
+    <t>badge info</t>
+  </si>
+  <si>
+    <t>ad boosting</t>
+  </si>
+  <si>
+    <t>product_variation_size_id</t>
+  </si>
+  <si>
+    <t>The size of the product (String)</t>
+  </si>
+  <si>
+    <t>feature info</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>inventory</t>
+  </si>
+  <si>
+    <t>size</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -317,6 +332,12 @@
       <color rgb="FF000000"/>
       <name val="Aptos"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -339,7 +360,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -352,6 +373,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -687,20 +711,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5A0EEE1-6C0A-4C17-9D00-74E5C91A2914}">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" customWidth="1"/>
+    <col min="1" max="1" width="27.77734375" customWidth="1"/>
     <col min="2" max="2" width="44.6640625" customWidth="1"/>
     <col min="3" max="3" width="20.21875" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -708,10 +734,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -719,10 +751,13 @@
         <v>3</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -730,10 +765,13 @@
         <v>5</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -741,10 +779,13 @@
         <v>7</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -752,10 +793,13 @@
         <v>9</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -763,10 +807,16 @@
         <v>11</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -774,10 +824,16 @@
         <v>13</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -785,10 +841,16 @@
         <v>15</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -796,10 +858,16 @@
         <v>17</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -807,10 +875,16 @@
         <v>19</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -818,10 +892,16 @@
         <v>21</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -829,10 +909,16 @@
         <v>23</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -840,10 +926,13 @@
         <v>25</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -851,10 +940,13 @@
         <v>27</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -862,10 +954,13 @@
         <v>29</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
@@ -873,10 +968,13 @@
         <v>31</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
@@ -884,10 +982,13 @@
         <v>33</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
@@ -895,235 +996,190 @@
         <v>35</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="C20" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+      <c r="C21" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+      <c r="C22" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+      <c r="C23" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+      <c r="C24" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+      <c r="C25" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+      <c r="C26" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+      <c r="C27" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+      <c r="C28" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+      <c r="C29" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+      <c r="C30" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B31" s="2" t="s">
+      <c r="C31" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>